--- a/doc/refs/工具模板_定义导入.xlsx
+++ b/doc/refs/工具模板_定义导入.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="6615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -174,33 +174,27 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00000_ "/>
-    <numFmt numFmtId="184" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00000_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -817,190 +811,187 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,467 +1278,468 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N81" sqref="N81"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="5" width="4.125" customWidth="1"/>
-    <col min="6" max="6" width="5.125" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="4.875" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="6" customWidth="1"/>
-    <col min="11" max="11" width="5.375" customWidth="1"/>
-    <col min="12" max="12" width="5.25" customWidth="1"/>
-    <col min="14" max="14" width="10.25" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
+    <col min="1" max="1" width="13.375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="22" style="48" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="50" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="48" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9" style="9"/>
+    <col min="14" max="14" width="10.25" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="48" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="44" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="31">
         <v>150</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="38">
         <v>1</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="38">
         <v>1</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="38">
         <v>9.19</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="38" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="34" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="14" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="38">
         <v>1</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="38">
         <v>150</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="39">
         <v>0.115</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="34" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="14" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="38">
         <v>1</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="38">
         <v>15</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="39">
         <v>0.27</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="P6" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="34">
         <v>1</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="33">
         <v>750</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="38">
         <v>1000</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="38">
         <v>3.4424999999999999</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="43">
         <v>8.9499999999999993</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="19" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="34">
         <v>1</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="33">
         <v>750</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="47" t="s">
+      <c r="K8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="38">
         <v>1000</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="38">
         <v>3.4424999999999999</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="43">
         <v>8.9499999999999993</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="34">
         <v>1</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="33">
         <v>750</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="38">
         <v>1000</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="38">
         <v>3.4424999999999999</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="43">
         <v>8.9499999999999993</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="19" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="34">
         <v>1</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="33">
         <v>750</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="38">
         <v>1000</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="38">
         <v>3.4424999999999999</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="43">
         <v>8.9499999999999993</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="P10" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="14" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="38">
         <v>1000</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="38">
         <v>2.7</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="45">
         <v>8.5</v>
       </c>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="46" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1761,6 +1753,6 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74990626395218019" right="0.74990626395218019" top="0.99987495602585208" bottom="0.99987495602585208" header="0.50896415560264285" footer="0.50896415560264285"/>
-  <pageSetup paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/refs/工具模板_定义导入.xlsx
+++ b/doc/refs/工具模板_定义导入.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\pdsys\doc\refs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>PN</t>
   </si>
@@ -163,6 +158,14 @@
   </si>
   <si>
     <t>ドット柄ペーパーカップ20個</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -811,10 +814,137 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -839,9 +969,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="1" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,18 +984,6 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -881,121 +996,23 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1053,7 +1070,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1088,7 +1105,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1265,7 +1282,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1273,483 +1290,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N81" sqref="N81"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="47" customWidth="1"/>
-    <col min="2" max="2" width="22" style="48" customWidth="1"/>
-    <col min="3" max="3" width="23.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="4.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="49" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="50" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="48" customWidth="1"/>
-    <col min="11" max="11" width="5.375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="9" customWidth="1"/>
-    <col min="13" max="13" width="9" style="9"/>
-    <col min="14" max="14" width="10.25" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="13.375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="22" style="33" customWidth="1"/>
+    <col min="3" max="4" width="5.125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="4.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="35" customWidth="1"/>
+    <col min="12" max="12" width="20.75" style="33" customWidth="1"/>
+    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="10.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
     </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+    <row r="2" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="J3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="M3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="N3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="P3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="Q3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="52">
+        <v>1.2</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="F4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="G4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="31">
+      <c r="H4" s="16">
         <v>150</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="K4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="L4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="M4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="N4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="38">
+      <c r="O4" s="23">
         <v>1</v>
       </c>
-      <c r="N4" s="38">
+      <c r="P4" s="23">
         <v>1</v>
       </c>
-      <c r="O4" s="38">
+      <c r="Q4" s="23">
         <v>9.19</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="R4" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30" t="s">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="K5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="L5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="M5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="N5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="38">
+      <c r="O5" s="23">
         <v>1</v>
       </c>
-      <c r="N5" s="38">
+      <c r="P5" s="23">
         <v>150</v>
       </c>
-      <c r="O5" s="39">
+      <c r="Q5" s="24">
         <v>0.115</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="R5" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30" t="s">
+    <row r="6" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="K6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="L6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="M6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="N6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="38">
+      <c r="O6" s="23">
         <v>1</v>
       </c>
-      <c r="N6" s="38">
+      <c r="P6" s="23">
         <v>15</v>
       </c>
-      <c r="O6" s="39">
+      <c r="Q6" s="24">
         <v>0.27</v>
       </c>
-      <c r="P6" s="40" t="s">
+      <c r="R6" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="41" t="s">
+    <row r="7" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="F7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="G7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="34">
+      <c r="H7" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="33">
+      <c r="I7" s="18">
         <v>750</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="J7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="K7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="L7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="M7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="N7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="38">
+      <c r="O7" s="23">
         <v>1000</v>
       </c>
-      <c r="N7" s="38">
+      <c r="P7" s="23">
         <v>3.4424999999999999</v>
       </c>
-      <c r="O7" s="43">
+      <c r="Q7" s="28">
         <v>8.9499999999999993</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="R7" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="41" t="s">
+    <row r="8" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="F8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="G8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="34">
+      <c r="H8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="33">
+      <c r="I8" s="18">
         <v>750</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="J8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="K8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="L8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="M8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="N8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="38">
+      <c r="O8" s="23">
         <v>1000</v>
       </c>
-      <c r="N8" s="38">
+      <c r="P8" s="23">
         <v>3.4424999999999999</v>
       </c>
-      <c r="O8" s="43">
+      <c r="Q8" s="28">
         <v>8.9499999999999993</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="R8" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="41" t="s">
+    <row r="9" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="F9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="G9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="34">
+      <c r="H9" s="19">
         <v>1</v>
       </c>
-      <c r="G9" s="33">
+      <c r="I9" s="18">
         <v>750</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="J9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="K9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="L9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="M9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="N9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="38">
+      <c r="O9" s="23">
         <v>1000</v>
       </c>
-      <c r="N9" s="38">
+      <c r="P9" s="23">
         <v>3.4424999999999999</v>
       </c>
-      <c r="O9" s="43">
+      <c r="Q9" s="28">
         <v>8.9499999999999993</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="R9" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="41" t="s">
+    <row r="10" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="F10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="G10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="34">
+      <c r="H10" s="19">
         <v>1</v>
       </c>
-      <c r="G10" s="33">
+      <c r="I10" s="18">
         <v>750</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="J10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="K10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="L10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="M10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="N10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="38">
+      <c r="O10" s="23">
         <v>1000</v>
       </c>
-      <c r="N10" s="38">
+      <c r="P10" s="23">
         <v>3.4424999999999999</v>
       </c>
-      <c r="O10" s="43">
+      <c r="Q10" s="28">
         <v>8.9499999999999993</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="R10" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="44" t="s">
+    <row r="11" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="K11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="L11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="M11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="N11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="38">
+      <c r="O11" s="23">
         <v>1000</v>
       </c>
-      <c r="N11" s="38">
+      <c r="P11" s="23">
         <v>2.7</v>
       </c>
-      <c r="O11" s="45">
+      <c r="Q11" s="30">
         <v>8.5</v>
       </c>
-      <c r="P11" s="46" t="s">
+      <c r="R11" s="31" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="K2:N2"/>
+  <mergeCells count="6">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="M2:P2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74990626395218019" right="0.74990626395218019" top="0.99987495602585208" bottom="0.99987495602585208" header="0.50896415560264285" footer="0.50896415560264285"/>
